--- a/SOM/Documents/SOM/BSCS Integration Progress (003).xlsx
+++ b/SOM/Documents/SOM/BSCS Integration Progress (003).xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabil.hajhassan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\SOM\Documents\SOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426831C4-C0D9-4BA7-9A90-5946725F5C74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="3" r:id="rId1"/>
     <sheet name="BSCS WS UC" sheetId="1" r:id="rId2"/>
     <sheet name="List of Issues" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="184">
   <si>
     <t>Use Case</t>
   </si>
@@ -190,9 +189,6 @@
     <t>L2S3103 - L2S3104 - L2S3107</t>
   </si>
   <si>
-    <t>103 and 107 are not aligned with the HLD, these use cases need discussions before implementation</t>
-  </si>
-  <si>
     <t>Get All rate plans</t>
   </si>
   <si>
@@ -563,12 +559,36 @@
   </si>
   <si>
     <t>Partial Complete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Issue #43</t>
+  </si>
+  <si>
+    <t>We are not able to get generated invocies, please check issue #43 on bug tracker for more details</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>It is not clear from CRM side how to implement it. We are checking with Marwan and Ali Younes</t>
+  </si>
+  <si>
+    <t>implemented the logic but still the submission to POS is not completed. Service is not exposed and even if it is we might not be able to provide package id in some cases (this needs discussion in the meeting on Thu 2 May 2019</t>
+  </si>
+  <si>
+    <t>#33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,18 +748,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I53" totalsRowShown="0">
-  <autoFilter ref="A1:I53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I53" totalsRowShown="0">
+  <autoFilter ref="A1:I53">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="New"/>
+        <filter val="Partialy Completed"/>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <dateGroupItem year="2019" month="4" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="4" day="24" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="4" day="25" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="4" day="26" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Use Case"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SOM Status"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Priority"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Vanrise Notes" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Original Assigned Date"/>
-    <tableColumn id="8" xr3:uid="{F08E5212-5D9B-49DD-8C7F-4957763DF8C0}" name="New Planned Date" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Delay (days)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Related Issues(ID on bug Tracker)" dataDxfId="0"/>
+    <tableColumn id="1" name="Use Case"/>
+    <tableColumn id="2" name="SOM Status"/>
+    <tableColumn id="9" name="Priority"/>
+    <tableColumn id="4" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" name="Vanrise Notes" dataDxfId="2"/>
+    <tableColumn id="6" name="Original Assigned Date"/>
+    <tableColumn id="8" name="New Planned Date" dataDxfId="1"/>
+    <tableColumn id="3" name="Delay (days)"/>
+    <tableColumn id="7" name="Related Issues(ID on bug Tracker)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,10 +1043,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D67E0-49C9-46AC-9DE1-0C45F2630A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1022,7 +1058,7 @@
   <sheetData>
     <row r="6" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(D9:D10)*100/D8</f>
@@ -1035,7 +1071,7 @@
     </row>
     <row r="8" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="15">
         <v>52</v>
@@ -1051,7 +1087,7 @@
     </row>
     <row r="10" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="15">
         <v>5</v>
@@ -1079,11 +1115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,28 +1143,28 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1185,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1206,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1227,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1248,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1238,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1258,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1273,7 +1309,7 @@
       <c r="H8"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1325,7 @@
       <c r="H9"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1310,12 +1346,12 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1330,15 +1366,15 @@
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -1355,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1420,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1399,7 +1435,7 @@
       <c r="H14"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1420,12 +1456,12 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1433,19 +1469,24 @@
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F16" s="3">
         <v>43580</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -1454,7 +1495,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7">
         <v>43573</v>
@@ -1464,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -1488,7 +1529,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -1509,7 +1550,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -1530,7 +1571,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -1551,12 +1592,12 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1564,19 +1605,24 @@
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F22" s="3">
         <v>43580</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1585,16 +1631,18 @@
         <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="F23" s="3">
         <v>43579</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -1605,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
@@ -1615,18 +1663,18 @@
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
@@ -1637,24 +1685,24 @@
         <v>0.5</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7">
         <v>43567</v>
@@ -1664,12 +1712,12 @@
         <v>2</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1678,14 +1726,14 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -1694,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="7">
         <v>43567</v>
@@ -1706,58 +1754,68 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F29" s="3">
         <v>43578</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F30" s="3">
         <v>43578</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="8"/>
@@ -1766,12 +1824,12 @@
         <v>0.5</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>13</v>
@@ -1780,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="13">
@@ -1792,9 +1850,9 @@
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>13</v>
@@ -1803,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="13">
@@ -1815,9 +1873,9 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>13</v>
@@ -1826,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="13">
@@ -1840,16 +1898,16 @@
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" s="3">
         <v>43581</v>
@@ -1860,16 +1918,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="3">
         <v>43581</v>
@@ -1878,9 +1936,9 @@
       <c r="H36"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1889,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="3">
         <v>43584</v>
@@ -1898,9 +1956,9 @@
       <c r="H37"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1909,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3">
         <v>43574</v>
@@ -1918,9 +1976,9 @@
       <c r="H38"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -1929,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="3">
         <v>43584</v>
@@ -1938,9 +1996,9 @@
       <c r="H39"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>4</v>
@@ -1949,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7">
@@ -1959,9 +2017,9 @@
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -1970,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="3">
         <v>43584</v>
@@ -1979,9 +2037,9 @@
       <c r="H41"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -1990,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="3">
         <v>43584</v>
@@ -1999,9 +2057,9 @@
       <c r="H42"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -2010,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="3">
         <v>43585</v>
@@ -2022,9 +2080,9 @@
       <c r="H43"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -2033,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F44" s="3">
         <v>43585</v>
@@ -2045,9 +2103,9 @@
       <c r="H44"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -2056,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="3">
         <v>43585</v>
@@ -2065,9 +2123,9 @@
       <c r="H45"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
@@ -2076,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="13">
@@ -2088,9 +2146,9 @@
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
@@ -2099,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="13">
@@ -2111,9 +2169,9 @@
       <c r="H47" s="11"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
@@ -2122,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="13">
@@ -2134,9 +2192,9 @@
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
@@ -2145,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="13">
@@ -2157,9 +2215,9 @@
       <c r="H49" s="11"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>4</v>
@@ -2168,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7">
@@ -2178,9 +2236,9 @@
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>4</v>
@@ -2189,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7">
@@ -2199,9 +2257,9 @@
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -2210,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="3">
         <v>43585</v>
@@ -2219,9 +2277,9 @@
       <c r="H52"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -2230,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="3">
         <v>43585</v>
@@ -2248,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,40 +2331,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
-      </c>
-      <c r="L1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2314,34 +2372,34 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
       </c>
       <c r="E2" s="4">
         <v>43574.443310185183</v>
       </c>
       <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
         <v>130</v>
-      </c>
-      <c r="G2" t="s">
-        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="4">
         <v>43574.443310185183</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2349,34 +2407,34 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4">
         <v>43572.695868055554</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="4">
         <v>43572.697569444441</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,34 +2442,34 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
       </c>
       <c r="E4" s="4">
         <v>43572.554201388892</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="4">
         <v>43572.601851851854</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2419,34 +2477,34 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="4">
         <v>43571.736828703702</v>
       </c>
       <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
         <v>130</v>
       </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="4">
         <v>43572.69972222222</v>
       </c>
       <c r="L5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2454,34 +2512,34 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
         <v>128</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
       </c>
       <c r="E6" s="4">
         <v>43571.734143518515</v>
       </c>
       <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
         <v>130</v>
       </c>
-      <c r="G6" t="s">
-        <v>131</v>
-      </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="4">
         <v>43572.702685185184</v>
       </c>
       <c r="L6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2489,34 +2547,34 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="4">
         <v>43571.515289351853</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="4">
         <v>43572.54619212963</v>
       </c>
       <c r="L7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,34 +2582,34 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4">
         <v>43571.441990740743</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4">
         <v>43573.555347222224</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2559,34 +2617,34 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="4">
         <v>43570.741643518515</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="4">
         <v>43572.618715277778</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2594,34 +2652,34 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4">
         <v>43570.73364583333</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="4">
         <v>43571.663101851853</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2629,34 +2687,34 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>149</v>
       </c>
       <c r="E11" s="4">
         <v>43570.648194444446</v>
       </c>
       <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
         <v>130</v>
       </c>
-      <c r="G11" t="s">
-        <v>131</v>
-      </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="4">
         <v>43572.704837962963</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2664,34 +2722,34 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4">
         <v>43570.597997685189</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="4">
         <v>43572.362800925926</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2699,34 +2757,34 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="4">
         <v>43570.594895833332</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="4">
         <v>43572.324131944442</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2734,34 +2792,34 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="4">
         <v>43570.460173611114</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="4">
         <v>43572.367789351854</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2769,34 +2827,34 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="4">
         <v>43570.447847222225</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
         <v>134</v>
       </c>
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" s="4">
         <v>43572.554131944446</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2804,34 +2862,34 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="4">
         <v>43570.4453587963</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" s="4">
         <v>43570.696157407408</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2839,34 +2897,34 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="4">
         <v>43570.431562500002</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="4">
         <v>43570.531388888892</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2874,34 +2932,34 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="4">
         <v>43570.430509259262</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" s="4">
         <v>43572.621874999997</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,37 +2967,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="4">
         <v>43570.406030092592</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="4">
         <v>43570.692916666667</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,34 +3005,34 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="4">
         <v>43570.401724537034</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
-        <v>135</v>
-      </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="4">
         <v>43570.54415509259</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/SOM/Documents/SOM/BSCS Integration Progress (003).xlsx
+++ b/SOM/Documents/SOM/BSCS Integration Progress (003).xlsx
@@ -752,17 +752,9 @@
   <autoFilter ref="A1:I53">
     <filterColumn colId="1">
       <filters>
+        <filter val="Blocked"/>
+        <filter val="In Progress"/>
         <filter val="New"/>
-        <filter val="Partialy Completed"/>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <dateGroupItem year="2019" month="4" day="23" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="24" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="25" dateTimeGrouping="day"/>
-        <dateGroupItem year="2019" month="4" day="26" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1118,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,12 +1261,12 @@
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1289,12 +1281,12 @@
       <c r="H7"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1415,12 +1407,12 @@
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1617,7 +1609,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1804,7 +1796,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
@@ -1832,7 +1824,7 @@
         <v>67</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C32" s="11">
         <v>3</v>
@@ -1855,7 +1847,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" s="11">
         <v>3</v>
@@ -1873,12 +1865,12 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C34" s="11">
         <v>3</v>
@@ -1896,12 +1888,12 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1916,12 +1908,12 @@
       <c r="H35"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1936,7 +1928,7 @@
       <c r="H36"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1956,12 +1948,12 @@
       <c r="H37"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1976,7 +1968,7 @@
       <c r="H38"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -2017,7 +2009,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2037,7 +2029,7 @@
       <c r="H41"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -2057,12 +2049,12 @@
       <c r="H42"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2080,7 +2072,7 @@
       <c r="H43"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2103,7 +2095,7 @@
       <c r="H44"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2123,7 +2115,7 @@
       <c r="H45"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>97</v>
       </c>
@@ -2146,7 +2138,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>99</v>
       </c>
@@ -2169,7 +2161,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>102</v>
       </c>
@@ -2192,7 +2184,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>104</v>
       </c>
@@ -2257,7 +2249,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>4</v>
